--- a/raw/Examples.xlsx
+++ b/raw/Examples.xlsx
@@ -93,7 +93,7 @@
     <t>saaṟa kaʈam koʈutta kuuʈʈukaari</t>
   </si>
   <si>
-    <t>Sarah loan give:PST:RP friend</t>
+    <t>[Sarah loan give:PST:RP] friend</t>
   </si>
   <si>
     <t>the friend to whom Sarah gave a loan</t>
